--- a/СтратегияТестированияЧек-листДефектТест-кейс.xlsx
+++ b/СтратегияТестированияЧек-листДефектТест-кейс.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate_sz9evn2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD00E2F-48AA-4BC1-AE45-29EA20B6E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977A0A67-F51B-4DEA-8DD6-689BF293914F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BA12028E-6D2B-43B8-99C7-0903A05B0948}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" firstSheet="4" activeTab="8" xr2:uid="{BA12028E-6D2B-43B8-99C7-0903A05B0948}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -29,21 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="269">
   <si>
     <t>Тест-план по системному тестированию QT проекта</t>
   </si>
@@ -817,9 +808,6 @@
 от пользователя.</t>
   </si>
   <si>
-    <t>Александр Панов</t>
-  </si>
-  <si>
     <t>При попытке регистрации уже существующего пользователя система выводит сообщение "Регистрация не удалась", но не указывает причину ("Данный пользователь уже зарегистрирован")
 1.Зарегистрировать нового пользователя ( Login : Alesha2012
 					Password: EmPirog).
@@ -845,9 +833,6 @@
     <t>Сообщение: "Регистрация не удалась. Данный пользователь уже зарегистрирован".</t>
   </si>
   <si>
-    <t>Неинформативное сообщение об ошибке при попытке регистрации существующего пользователя не зарегистрированного пользователя</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нажать  "Change" </t>
   </si>
   <si>
@@ -890,6 +875,36 @@
     <t xml:space="preserve">
 Попробовать зарегистрироваться
 без логина и пароля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несуществующие данные незарегистрированного пользователя для тестирования регистрации </t>
+  </si>
+  <si>
+    <t>Alesha2012</t>
+  </si>
+  <si>
+    <t>EmPirog</t>
+  </si>
+  <si>
+    <t>Coder3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Панов Александра Владимировича</t>
+  </si>
+  <si>
+    <t>Панов Александр Влладимирович</t>
+  </si>
+  <si>
+    <t>screen_defect_auth.jpg</t>
+  </si>
+  <si>
+    <t>Неинформативное сообщение об ошибке при попытке регистрации уже существующего пользователя</t>
+  </si>
+  <si>
+    <t>Окно регистрации</t>
   </si>
 </sst>
 </file>
@@ -899,7 +914,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,7 +1045,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2001,7 +2017,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2246,69 +2262,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2376,15 +2330,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2398,9 +2343,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2453,51 +2395,12 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2517,15 +2420,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2539,9 +2433,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2592,60 +2483,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2674,15 +2514,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2696,13 +2527,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2758,21 +2582,6 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2783,6 +2592,195 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3085,16 +3083,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1121228</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>93362</xdr:rowOff>
+      <xdr:rowOff>49819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>309306</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108893</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2969175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3117,8 +3115,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7783286" y="6036962"/>
-          <a:ext cx="5088134" cy="5382188"/>
+          <a:off x="1121228" y="7473876"/>
+          <a:ext cx="8978090" cy="9496953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3429,11 +3427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6881CAFA-09F0-4656-8C24-E0870E7599CB}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" zoomScale="72" workbookViewId="0">
-      <selection activeCell="D33" sqref="D32:D33"/>
+    <sheetView topLeftCell="F1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" customWidth="1"/>
@@ -3443,7 +3441,7 @@
     <col min="11" max="11" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3456,22 +3454,22 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="46.8" customHeight="1" thickBot="1">
+    <row r="2" spans="1:11" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="232"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="16.2" thickBot="1">
+    <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -3486,22 +3484,22 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="28.8" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3514,22 +3512,22 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="28.8" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="235"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3542,7 +3540,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>4</v>
@@ -3557,7 +3555,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="29.4" thickBot="1">
+    <row r="9" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="90" t="s">
         <v>5</v>
       </c>
@@ -3592,7 +3590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.8" thickBot="1">
+    <row r="10" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -3619,11 +3617,11 @@
       <c r="J10" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="98" t="s">
+      <c r="K10" s="236" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.8" thickBot="1">
+    <row r="11" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -3650,9 +3648,9 @@
       <c r="J11" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="99"/>
-    </row>
-    <row r="12" spans="1:11" ht="43.8" thickBot="1">
+      <c r="K11" s="237"/>
+    </row>
+    <row r="12" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -3679,9 +3677,9 @@
       <c r="J12" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="99"/>
-    </row>
-    <row r="13" spans="1:11" ht="87" thickBot="1">
+      <c r="K12" s="237"/>
+    </row>
+    <row r="13" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>4</v>
       </c>
@@ -3708,9 +3706,9 @@
       <c r="J13" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="100"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="K13" s="238"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>26</v>
       </c>
@@ -3743,399 +3741,451 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF7F97B-99EE-4535-B27D-B697AC6B1E4F}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="225"/>
-    <col min="2" max="2" width="37.6640625" style="225" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="225" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="225"/>
-    <col min="6" max="6" width="22.77734375" style="225" customWidth="1"/>
-    <col min="7" max="7" width="59.44140625" style="225" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="225" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="225"/>
+    <col min="1" max="1" width="8.88671875" style="178"/>
+    <col min="2" max="2" width="37.6640625" style="178" customWidth="1"/>
+    <col min="3" max="3" width="50" style="178" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="178"/>
+    <col min="6" max="6" width="22.77734375" style="178" customWidth="1"/>
+    <col min="7" max="7" width="59.44140625" style="178" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="178" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="178"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
-      <c r="A1" s="247"/>
-      <c r="B1" s="248" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="183"/>
+      <c r="B1" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="248" t="s">
+      <c r="D1" s="186"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="252" t="s">
+      <c r="G1" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="253"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="254"/>
-      <c r="B2" s="255" t="s">
+      <c r="H1" s="189"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="283"/>
+      <c r="B2" s="285" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="256" t="s">
+      <c r="C2" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="257"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="259" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="260" t="s">
+      <c r="G2" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="261"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="259" t="s">
+      <c r="H2" s="194"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="284"/>
+      <c r="B3" s="286"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="265">
+      <c r="G3" s="195">
         <v>1.2</v>
       </c>
-      <c r="H3" s="261"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="266"/>
-      <c r="B4" s="248" t="s">
+      <c r="H3" s="194"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="196"/>
+      <c r="B4" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="249" t="s">
+      <c r="C4" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="250"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="248" t="s">
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="267">
+      <c r="G4" s="197">
         <v>45812</v>
       </c>
-      <c r="H4" s="253"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1">
-      <c r="A5" s="268"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="266"/>
-      <c r="B6" s="271" t="s">
+      <c r="H4" s="189"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="198"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="196"/>
+      <c r="B6" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="272"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="272"/>
-    </row>
-    <row r="7" spans="1:8" ht="72">
-      <c r="A7" s="268"/>
-      <c r="B7" s="275" t="s">
+      <c r="C6" s="202"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="202"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A7" s="198"/>
+      <c r="B7" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="275" t="s">
+      <c r="C7" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="276"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="277"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="269"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="268"/>
-      <c r="B8" s="269" t="s">
+      <c r="D7" s="206"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="199"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="198"/>
+      <c r="B8" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="270"/>
-      <c r="E8" s="277"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="269"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="268"/>
-      <c r="B9" s="269" t="s">
+      <c r="D8" s="200"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="199"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="198"/>
+      <c r="B9" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="276">
+      <c r="C9" s="206">
         <v>1234</v>
       </c>
-      <c r="D9" s="270"/>
-      <c r="E9" s="277"/>
-      <c r="F9" s="277"/>
-      <c r="G9" s="277"/>
-      <c r="H9" s="269"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" thickBot="1">
-      <c r="A10" s="268"/>
-      <c r="B10" s="269"/>
-      <c r="C10" s="269"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="279">
+      <c r="D9" s="200"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="199"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="198"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="209">
         <v>8</v>
       </c>
-      <c r="B11" s="280" t="s">
+      <c r="B11" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="281" t="s">
+      <c r="C11" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="281">
+      <c r="D11" s="211">
         <v>6</v>
       </c>
-      <c r="E11" s="281">
+      <c r="E11" s="211">
         <v>2</v>
       </c>
-      <c r="F11" s="281">
+      <c r="F11" s="211">
         <v>0</v>
       </c>
-      <c r="G11" s="282" t="s">
+      <c r="G11" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="283">
+      <c r="H11" s="213">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.799999999999997">
-      <c r="A12" s="284" t="s">
+    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A12" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="285" t="s">
+      <c r="B12" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="285" t="s">
+      <c r="C12" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="284" t="s">
+      <c r="D12" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="284" t="s">
+      <c r="E12" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="284" t="s">
+      <c r="F12" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="285" t="s">
+      <c r="G12" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="285" t="s">
+      <c r="H12" s="215" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="54">
-      <c r="A13" s="286">
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A13" s="220">
         <v>1</v>
       </c>
-      <c r="B13" s="287" t="s">
+      <c r="B13" s="221" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="220" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="220" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="221"/>
+    </row>
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="220">
+        <v>2</v>
+      </c>
+      <c r="B14" s="222" t="s">
         <v>249</v>
       </c>
-      <c r="C13" s="286" t="s">
+      <c r="C14" s="220" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="220" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="220"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="221"/>
+    </row>
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="223">
+        <v>3</v>
+      </c>
+      <c r="B15" s="220" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="222" t="s">
         <v>250</v>
       </c>
-      <c r="D13" s="286" t="s">
+      <c r="D15" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="287"/>
-    </row>
-    <row r="14" spans="1:8" ht="72">
-      <c r="A14" s="286">
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="224" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="221"/>
+    </row>
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A16" s="223">
+        <v>4</v>
+      </c>
+      <c r="B16" s="220" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="222" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="221"/>
+      <c r="G16" s="224" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A17" s="221">
+        <v>5</v>
+      </c>
+      <c r="B17" s="220" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="224" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="221" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="224" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="221"/>
+    </row>
+    <row r="18" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A18" s="221">
+        <v>6</v>
+      </c>
+      <c r="B18" s="220" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="222" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="221"/>
+      <c r="E18" s="221" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="221">
         <v>2</v>
       </c>
-      <c r="B14" s="289" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="286" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="286" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+      <c r="A19" s="221">
+        <v>7</v>
+      </c>
+      <c r="B19" s="220" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="220" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="286"/>
-      <c r="F14" s="286"/>
-      <c r="G14" s="286" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="287"/>
-    </row>
-    <row r="15" spans="1:8" ht="36">
-      <c r="A15" s="288">
-        <v>3</v>
-      </c>
-      <c r="B15" s="286" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="289" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="287" t="s">
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="224" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="221"/>
+    </row>
+    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+      <c r="A20" s="221">
+        <v>8</v>
+      </c>
+      <c r="B20" s="220" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="220" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="290" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="287"/>
-    </row>
-    <row r="16" spans="1:8" ht="54">
-      <c r="A16" s="288">
-        <v>4</v>
-      </c>
-      <c r="B16" s="286" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="289" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="287"/>
-      <c r="G16" s="290" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="90">
-      <c r="A17" s="287">
-        <v>5</v>
-      </c>
-      <c r="B17" s="286" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="290" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="287" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="290" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="287"/>
-    </row>
-    <row r="18" spans="1:8" ht="54">
-      <c r="A18" s="287">
-        <v>6</v>
-      </c>
-      <c r="B18" s="286" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="289" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="287"/>
-      <c r="E18" s="287" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="287"/>
-      <c r="G18" s="287" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="287">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="126">
-      <c r="A19" s="287">
-        <v>7</v>
-      </c>
-      <c r="B19" s="286" t="s">
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="224" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="221"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+      <c r="A27"/>
+      <c r="B27" s="208" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="286" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="287" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="287"/>
-      <c r="F19" s="287"/>
-      <c r="G19" s="290" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="287"/>
-    </row>
-    <row r="20" spans="1:8" ht="126">
-      <c r="A20" s="287">
-        <v>8</v>
-      </c>
-      <c r="B20" s="286" t="s">
+      <c r="C27" s="208"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28"/>
+      <c r="B28" s="208" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="208" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="286" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="287" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="287"/>
-      <c r="F20" s="287"/>
-      <c r="G20" s="290" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="287"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="278"/>
-      <c r="C26" s="278"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="278"/>
-      <c r="C27" s="278"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="278"/>
-      <c r="C28" s="278"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="278"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="278"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29"/>
+      <c r="B29" s="208" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="208" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32" s="208" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="178" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33" s="208" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="178" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4151,11 +4201,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017E2EDC-2CE9-436C-B301-322D03BF0E1F}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="6.109375" customWidth="1"/>
@@ -4165,567 +4215,567 @@
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.4" customHeight="1">
-      <c r="A1" s="119"/>
-      <c r="B1" s="120" t="s">
+    <row r="1" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="97"/>
+      <c r="B1" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
-      <c r="A2" s="117" t="s">
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="291">
+      <c r="B2" s="216">
         <v>1</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36">
-      <c r="A3" s="121"/>
-      <c r="B3" s="291">
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="99"/>
+      <c r="B3" s="216">
         <v>2</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="54">
-      <c r="A4" s="121"/>
-      <c r="B4" s="291">
+    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A4" s="99"/>
+      <c r="B4" s="216">
         <v>3</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36">
-      <c r="A5" s="121"/>
-      <c r="B5" s="291">
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="99"/>
+      <c r="B5" s="216">
         <v>4</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="36">
-      <c r="A6" s="121"/>
-      <c r="B6" s="291">
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="99"/>
+      <c r="B6" s="216">
         <v>5</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="54">
-      <c r="A7" s="116" t="s">
+    <row r="7" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A7" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="292">
+      <c r="B7" s="217">
         <v>6</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="54">
-      <c r="A8" s="124"/>
-      <c r="B8" s="292">
+    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A8" s="102"/>
+      <c r="B8" s="217">
         <v>7</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="54">
-      <c r="A9" s="124"/>
-      <c r="B9" s="292">
+    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A9" s="102"/>
+      <c r="B9" s="217">
         <v>8</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="123" t="s">
+      <c r="F9" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="108">
-      <c r="A10" s="124"/>
-      <c r="B10" s="292">
+    <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.35">
+      <c r="A10" s="102"/>
+      <c r="B10" s="217">
         <v>9</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F10" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="54">
-      <c r="A11" s="124"/>
-      <c r="B11" s="292">
+    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A11" s="102"/>
+      <c r="B11" s="217">
         <v>10</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72">
-      <c r="A12" s="124"/>
-      <c r="B12" s="292">
+    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+      <c r="A12" s="102"/>
+      <c r="B12" s="217">
         <v>11</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72">
-      <c r="A13" s="124"/>
-      <c r="B13" s="292">
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+      <c r="A13" s="102"/>
+      <c r="B13" s="217">
         <v>12</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="123" t="s">
+      <c r="E13" s="102"/>
+      <c r="F13" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="36">
-      <c r="A14" s="124"/>
-      <c r="B14" s="292">
+    <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="102"/>
+      <c r="B14" s="217">
         <v>13</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="123" t="s">
+      <c r="F14" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="36">
-      <c r="A15" s="124"/>
-      <c r="B15" s="292">
+    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="102"/>
+      <c r="B15" s="217">
         <v>14</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="125" t="s">
+      <c r="E15" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="F15" s="123" t="s">
+      <c r="F15" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36">
-      <c r="A16" s="124"/>
-      <c r="B16" s="292">
+    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A16" s="102"/>
+      <c r="B16" s="217">
         <v>15</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="36">
-      <c r="A17" s="124"/>
-      <c r="B17" s="292">
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A17" s="102"/>
+      <c r="B17" s="217">
         <v>16</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="54">
-      <c r="A18" s="124"/>
-      <c r="B18" s="292">
+    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A18" s="102"/>
+      <c r="B18" s="217">
         <v>17</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="36">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A19" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="293">
+      <c r="B19" s="218">
         <v>18</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="123" t="s">
+      <c r="F19" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="54">
-      <c r="A20" s="114"/>
-      <c r="B20" s="293">
+    <row r="20" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A20" s="239"/>
+      <c r="B20" s="218">
         <v>19</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="90">
-      <c r="A21" s="128"/>
-      <c r="B21" s="293">
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+      <c r="A21" s="106"/>
+      <c r="B21" s="218">
         <v>20</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="118" t="s">
+      <c r="E21" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="123" t="s">
+      <c r="F21" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36">
-      <c r="A22" s="294" t="s">
+    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A22" s="219" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="115">
+      <c r="B22" s="93">
         <v>21</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="130" t="s">
+      <c r="E22" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="123" t="s">
+      <c r="F22" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="36">
-      <c r="A23" s="129"/>
-      <c r="B23" s="115">
+    <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A23" s="107"/>
+      <c r="B23" s="93">
         <v>22</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="130" t="s">
+      <c r="E23" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="123" t="s">
+      <c r="F23" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="36">
-      <c r="A24" s="129"/>
-      <c r="B24" s="115">
+    <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A24" s="107"/>
+      <c r="B24" s="93">
         <v>23</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="130" t="s">
+      <c r="E24" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="123" t="s">
+      <c r="F24" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36">
-      <c r="A25" s="129"/>
-      <c r="B25" s="115">
+    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A25" s="107"/>
+      <c r="B25" s="93">
         <v>24</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="130" t="s">
+      <c r="D25" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="130" t="s">
+      <c r="E25" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="123" t="s">
+      <c r="F25" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="36">
-      <c r="A26" s="129"/>
-      <c r="B26" s="115">
+    <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A26" s="107"/>
+      <c r="B26" s="93">
         <v>25</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="108" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="130" t="s">
+      <c r="E26" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="123" t="s">
+      <c r="F26" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="54">
-      <c r="A27" s="129"/>
-      <c r="B27" s="115">
+    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A27" s="107"/>
+      <c r="B27" s="93">
         <v>26</v>
       </c>
-      <c r="C27" s="130" t="s">
+      <c r="C27" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="130" t="s">
+      <c r="E27" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="36">
-      <c r="A28" s="129"/>
-      <c r="B28" s="115">
+    <row r="28" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A28" s="107"/>
+      <c r="B28" s="93">
         <v>27</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="130" t="s">
+      <c r="E28" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="123" t="s">
+      <c r="F28" s="101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="72">
-      <c r="A29" s="113"/>
-      <c r="B29" s="115">
+    <row r="29" spans="1:6" ht="72" x14ac:dyDescent="0.35">
+      <c r="A29" s="92"/>
+      <c r="B29" s="93">
         <v>28</v>
       </c>
-      <c r="C29" s="245" t="s">
+      <c r="C29" s="181" t="s">
         <v>237</v>
       </c>
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="E29" s="245" t="s">
+      <c r="E29" s="181" t="s">
         <v>239</v>
       </c>
-      <c r="F29" s="244" t="s">
+      <c r="F29" s="180" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="207" customHeight="1">
-      <c r="A30" s="113"/>
-      <c r="B30" s="115">
+    <row r="30" spans="1:6" ht="207" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="92"/>
+      <c r="B30" s="93">
         <v>29</v>
       </c>
-      <c r="C30" s="246" t="s">
+      <c r="C30" s="182" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="246" t="s">
+      <c r="D30" s="182" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="246" t="s">
+      <c r="E30" s="182" t="s">
         <v>242</v>
       </c>
-      <c r="F30" s="244" t="s">
+      <c r="F30" s="180" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="228.6" customHeight="1">
-      <c r="A31" s="113"/>
-      <c r="B31" s="115">
+    <row r="31" spans="1:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="92"/>
+      <c r="B31" s="93">
         <v>30</v>
       </c>
-      <c r="C31" s="245" t="s">
+      <c r="C31" s="181" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="181" t="s">
         <v>245</v>
       </c>
-      <c r="D31" s="245" t="s">
+      <c r="E31" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="E31" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="244" t="s">
+      <c r="F31" s="180" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4742,10 +4792,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
@@ -4753,17 +4803,17 @@
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="240" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>55</v>
       </c>
@@ -4777,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="82" t="s">
         <v>102</v>
       </c>
@@ -4787,7 +4837,7 @@
       </c>
       <c r="D3" s="85"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
@@ -4799,7 +4849,7 @@
       </c>
       <c r="D4" s="85"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
         <v>106</v>
       </c>
@@ -4813,7 +4863,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86" t="s">
         <v>110</v>
       </c>
@@ -4825,7 +4875,7 @@
       </c>
       <c r="D6" s="85"/>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="86" t="s">
         <v>107</v>
       </c>
@@ -4837,7 +4887,7 @@
       </c>
       <c r="D7" s="85"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
         <v>114</v>
       </c>
@@ -4849,7 +4899,7 @@
       </c>
       <c r="D8" s="85"/>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="86" t="s">
         <v>117</v>
       </c>
@@ -4859,7 +4909,7 @@
       </c>
       <c r="D9" s="85"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="86" t="s">
         <v>119</v>
       </c>
@@ -4869,7 +4919,7 @@
       </c>
       <c r="D10" s="85"/>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="82" t="s">
         <v>121</v>
       </c>
@@ -4881,57 +4931,57 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="108.6" customHeight="1" thickBot="1">
+    <row r="12" spans="1:4" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="243" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="C12" s="244"/>
+      <c r="D12" s="245"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-    </row>
-    <row r="18" spans="6:7">
+      <c r="B13" s="240"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="242"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="89"/>
       <c r="G18" s="89"/>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="89"/>
       <c r="G19" s="89"/>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="89"/>
       <c r="G20" s="89"/>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="89"/>
       <c r="G21" s="89"/>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" s="89"/>
       <c r="G22" s="89"/>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" s="89"/>
       <c r="G23" s="89"/>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" s="89"/>
       <c r="G24" s="89"/>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25" s="89"/>
       <c r="G25" s="89"/>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F26" s="89"/>
       <c r="G26" s="89"/>
     </row>
@@ -4950,11 +5000,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0809AD-AD85-4BB4-A0D7-EF75AA2D440C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
@@ -4965,7 +5015,7 @@
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="37"/>
       <c r="B1" s="38" t="s">
         <v>29</v>
@@ -4983,12 +5033,12 @@
       </c>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="107"/>
-      <c r="B2" s="109" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="246"/>
+      <c r="B2" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="250" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="44"/>
@@ -5001,10 +5051,10 @@
       </c>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="112"/>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="247"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="251"/>
       <c r="D3" s="44"/>
       <c r="E3" s="45"/>
       <c r="F3" s="46" t="s">
@@ -5013,7 +5063,7 @@
       <c r="G3" s="49"/>
       <c r="H3" s="48"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="38" t="s">
         <v>38</v>
@@ -5031,7 +5081,7 @@
       </c>
       <c r="H4" s="43"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
@@ -5041,7 +5091,7 @@
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
       <c r="B6" s="38" t="s">
         <v>40</v>
@@ -5053,7 +5103,7 @@
       <c r="G6" s="58"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8" ht="26.4">
+    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
       <c r="B7" s="59" t="s">
         <v>41</v>
@@ -5067,7 +5117,7 @@
       <c r="G7" s="61"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="54" t="s">
         <v>43</v>
@@ -5081,7 +5131,7 @@
       <c r="G8" s="61"/>
       <c r="H8" s="54"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
       <c r="B9" s="54" t="s">
         <v>45</v>
@@ -5095,7 +5145,7 @@
       <c r="G9" s="61"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="53"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -5105,7 +5155,7 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="62">
         <v>6</v>
       </c>
@@ -5131,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="26.4" thickBot="1">
+    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="68" t="s">
         <v>49</v>
       </c>
@@ -5157,7 +5207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="55.2">
+    <row r="13" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="73">
         <v>1</v>
       </c>
@@ -5177,7 +5227,7 @@
       </c>
       <c r="H13" s="77"/>
     </row>
-    <row r="14" spans="1:8" ht="82.8">
+    <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="78">
         <v>2</v>
       </c>
@@ -5197,7 +5247,7 @@
       </c>
       <c r="H14" s="80"/>
     </row>
-    <row r="15" spans="1:8" ht="55.2">
+    <row r="15" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="78">
         <v>3</v>
       </c>
@@ -5217,7 +5267,7 @@
       </c>
       <c r="H15" s="80"/>
     </row>
-    <row r="16" spans="1:8" ht="55.2">
+    <row r="16" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="78">
         <v>4</v>
       </c>
@@ -5237,7 +5287,7 @@
       </c>
       <c r="H16" s="79"/>
     </row>
-    <row r="17" spans="1:8" ht="55.2">
+    <row r="17" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="78">
         <v>5</v>
       </c>
@@ -5272,10 +5322,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:F14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
@@ -5283,17 +5333,17 @@
     <col min="4" max="4" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="240" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>55</v>
       </c>
@@ -5307,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.4" thickBot="1">
+    <row r="3" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="82" t="s">
         <v>102</v>
       </c>
@@ -5321,7 +5371,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82" t="s">
         <v>11</v>
       </c>
@@ -5333,7 +5383,7 @@
       </c>
       <c r="D4" s="85"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
         <v>106</v>
       </c>
@@ -5347,7 +5397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86" t="s">
         <v>110</v>
       </c>
@@ -5359,7 +5409,7 @@
       </c>
       <c r="D6" s="85"/>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="86" t="s">
         <v>107</v>
       </c>
@@ -5371,7 +5421,7 @@
       </c>
       <c r="D7" s="85"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
         <v>114</v>
       </c>
@@ -5383,7 +5433,7 @@
       </c>
       <c r="D8" s="85"/>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="86" t="s">
         <v>117</v>
       </c>
@@ -5393,7 +5443,7 @@
       </c>
       <c r="D9" s="85"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="86" t="s">
         <v>119</v>
       </c>
@@ -5403,7 +5453,7 @@
       </c>
       <c r="D10" s="85"/>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="82" t="s">
         <v>121</v>
       </c>
@@ -5417,25 +5467,25 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="243" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="C12" s="244"/>
+      <c r="D12" s="245"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="240" t="s">
         <v>236</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5453,10 +5503,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
@@ -5467,201 +5517,201 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="186"/>
-      <c r="B1" s="187" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="145"/>
+      <c r="B1" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="188" t="s">
+      <c r="C1" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="189"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="187" t="s">
+      <c r="D1" s="148"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="191" t="s">
+      <c r="G1" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="192"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="193"/>
-      <c r="B2" s="194" t="s">
+      <c r="H1" s="151"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="252"/>
+      <c r="B2" s="254" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="256" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="198" t="s">
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="200"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
-      <c r="A3" s="201"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198" t="s">
+      <c r="H2" s="156"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="253"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="204">
+      <c r="G3" s="157">
         <v>1</v>
       </c>
-      <c r="H3" s="200"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="205"/>
-      <c r="B4" s="187" t="s">
+      <c r="H3" s="156"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="158"/>
+      <c r="B4" s="146" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="187" t="s">
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="206">
+      <c r="G4" s="159">
         <v>45812</v>
       </c>
-      <c r="H4" s="192"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
-      <c r="A5" s="207"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="205"/>
-      <c r="B6" s="187" t="s">
+      <c r="H4" s="151"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="160"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="158"/>
+      <c r="B6" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="211"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="164"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="210"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.4">
-      <c r="A7" s="207"/>
-      <c r="B7" s="212" t="s">
+      <c r="H6" s="163"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="160"/>
+      <c r="B7" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="213"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="208"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="207"/>
-      <c r="B8" s="208" t="s">
+      <c r="H7" s="161"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="160"/>
+      <c r="B8" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="208" t="s">
+      <c r="C8" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="209"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="208"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="207"/>
-      <c r="B9" s="208" t="s">
+      <c r="H8" s="161"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="160"/>
+      <c r="B9" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="213">
+      <c r="C9" s="166">
         <v>123</v>
       </c>
-      <c r="D9" s="209"/>
+      <c r="D9" s="162"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="208"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1">
-      <c r="A10" s="207"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
-      <c r="A11" s="214">
+      <c r="H9" s="161"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="160"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="167">
         <v>3</v>
       </c>
-      <c r="B11" s="215" t="s">
+      <c r="B11" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="216" t="s">
+      <c r="C11" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="217">
+      <c r="D11" s="170">
         <v>3</v>
       </c>
-      <c r="E11" s="217">
+      <c r="E11" s="170">
         <v>0</v>
       </c>
-      <c r="F11" s="217">
+      <c r="F11" s="170">
         <v>0</v>
       </c>
-      <c r="G11" s="218" t="s">
+      <c r="G11" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="219">
+      <c r="H11" s="172">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="26.4" thickBot="1">
-      <c r="A12" s="220" t="s">
+    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="221" t="s">
+      <c r="B12" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="222" t="s">
+      <c r="E12" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="222" t="s">
+      <c r="F12" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="223" t="s">
+      <c r="G12" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="224" t="s">
+      <c r="H12" s="177" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="55.2">
+    <row r="13" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>1</v>
       </c>
@@ -5681,7 +5731,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="41.4">
+    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>2</v>
       </c>
@@ -5701,7 +5751,7 @@
       </c>
       <c r="H14" s="36"/>
     </row>
-    <row r="15" spans="1:8" ht="96.6">
+    <row r="15" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>3</v>
       </c>
@@ -5737,11 +5787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6B3273-76EB-4249-874D-3207013E4E92}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="2" width="36.21875" customWidth="1"/>
@@ -5749,71 +5799,71 @@
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" s="170" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="258" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
-    </row>
-    <row r="2" spans="1:4" ht="27.6" thickBot="1">
-      <c r="A2" s="174" t="s">
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="143" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="83">
         <v>3</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="144" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="83">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A3" s="174" t="s">
+    <row r="3" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="143" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="144" t="s">
         <v>103</v>
       </c>
       <c r="D3" s="85" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27.6" thickBot="1">
-      <c r="A4" s="174" t="s">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="143" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="144" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="85"/>
     </row>
-    <row r="5" spans="1:4" ht="27.6" thickBot="1">
-      <c r="A5" s="174" t="s">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="143" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="144" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86" t="s">
         <v>110</v>
       </c>
@@ -5825,7 +5875,7 @@
       </c>
       <c r="D6" s="85"/>
     </row>
-    <row r="7" spans="1:4" ht="29.4" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="86" t="s">
         <v>107</v>
       </c>
@@ -5837,7 +5887,7 @@
       </c>
       <c r="D7" s="85"/>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
         <v>114</v>
       </c>
@@ -5849,7 +5899,7 @@
       </c>
       <c r="D8" s="85"/>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="86" t="s">
         <v>117</v>
       </c>
@@ -5859,7 +5909,7 @@
       </c>
       <c r="D9" s="85"/>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="86" t="s">
         <v>119</v>
       </c>
@@ -5869,129 +5919,129 @@
       </c>
       <c r="D10" s="85"/>
     </row>
-    <row r="11" spans="1:4" ht="29.4" thickBot="1">
-      <c r="A11" s="174" t="s">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="143" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="144" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="85" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A12" s="176" t="s">
+    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="261" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="262" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A13" s="176"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="176"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="176"/>
-      <c r="B15" s="180"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A16" s="176"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="182"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A20" s="176"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A23" s="176"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="182"/>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A25" s="176"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="182"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" hidden="1" customHeight="1" thickBot="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="182"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" hidden="1" customHeight="1" thickBot="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="185"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1">
-      <c r="A28" s="174" t="s">
+      <c r="C12" s="263"/>
+      <c r="D12" s="264"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="261"/>
+      <c r="B13" s="265"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="267"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="261"/>
+      <c r="B14" s="265"/>
+      <c r="C14" s="266"/>
+      <c r="D14" s="267"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="261"/>
+      <c r="B15" s="265"/>
+      <c r="C15" s="266"/>
+      <c r="D15" s="267"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="261"/>
+      <c r="B16" s="265"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="267"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="261"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="267"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="261"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="267"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="261"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="267"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="261"/>
+      <c r="B20" s="265"/>
+      <c r="C20" s="266"/>
+      <c r="D20" s="267"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="261"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="266"/>
+      <c r="D21" s="267"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="261"/>
+      <c r="B22" s="265"/>
+      <c r="C22" s="266"/>
+      <c r="D22" s="267"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="261"/>
+      <c r="B23" s="265"/>
+      <c r="C23" s="266"/>
+      <c r="D23" s="267"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="261"/>
+      <c r="B24" s="265"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="267"/>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="261"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="266"/>
+      <c r="D25" s="267"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="261"/>
+      <c r="B26" s="265"/>
+      <c r="C26" s="266"/>
+      <c r="D26" s="267"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="261"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="270"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="258" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
+      <c r="C28" s="259"/>
+      <c r="D28" s="260"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6010,10 +6060,10 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
@@ -6024,197 +6074,197 @@
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4">
-      <c r="A1" s="131"/>
-      <c r="B1" s="132" t="s">
+    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="109"/>
+      <c r="B1" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="132" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="137"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139" t="s">
+      <c r="H1" s="115"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="271"/>
+      <c r="B2" s="273" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143" t="s">
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="144" t="s">
+      <c r="G2" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="145"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="143" t="s">
+      <c r="H2" s="120"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="272"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="149">
+      <c r="G3" s="121">
         <v>3</v>
       </c>
-      <c r="H3" s="145"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="150"/>
-      <c r="B4" s="132" t="s">
+      <c r="H3" s="120"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="122"/>
+      <c r="B4" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="132" t="s">
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="151">
+      <c r="G4" s="123">
         <v>45812</v>
       </c>
-      <c r="H4" s="137"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
-      <c r="A5" s="152"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="150"/>
-      <c r="B6" s="132" t="s">
+      <c r="H4" s="115"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="122"/>
+      <c r="B6" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="155"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="152"/>
-      <c r="B7" s="157" t="s">
+      <c r="H6" s="127"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="124"/>
+      <c r="B7" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="158"/>
-      <c r="H7" s="153"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153" t="s">
+      <c r="D7" s="130"/>
+      <c r="H7" s="125"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="124"/>
+      <c r="B8" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="H8" s="153"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153" t="s">
+      <c r="D8" s="126"/>
+      <c r="H8" s="125"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="124"/>
+      <c r="B9" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="158">
+      <c r="C9" s="130">
         <v>123</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="H9" s="153"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
-      <c r="A11" s="159">
+      <c r="D9" s="126"/>
+      <c r="H9" s="125"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="124"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="131">
         <f>COUNTA(A13:A28)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="134">
         <f t="shared" ref="D11:F11" si="0">COUNTIF(D13:D28,"x")</f>
         <v>5</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="134">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="163" t="s">
+      <c r="G11" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="164">
+      <c r="H11" s="136">
         <f>(D11+E11+F11)/A11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="26.4" thickBot="1">
-      <c r="A12" s="165" t="s">
+    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="167" t="s">
+      <c r="E12" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="167" t="s">
+      <c r="F12" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="169" t="s">
+      <c r="H12" s="141" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="41.4">
+    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>1</v>
       </c>
@@ -6234,7 +6284,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" ht="69">
+    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f t="shared" ref="A14:A18" si="1">A13+1</f>
         <v>2</v>
@@ -6255,7 +6305,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" ht="41.4">
+    <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6276,7 +6326,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="69">
+    <row r="16" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6297,7 +6347,7 @@
       </c>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="82.8">
+    <row r="17" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6320,7 +6370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="27.6">
+    <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6355,11 +6405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C1CF81-8E50-40DA-9D74-C2BD03456E2D}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
@@ -6367,168 +6417,176 @@
     <col min="4" max="4" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1">
-      <c r="A1" s="226" t="s">
+    <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="225" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="241" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="243"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="230" t="s">
+      <c r="B1" s="277" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="278"/>
+      <c r="D1" s="279"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="232" t="s">
+      <c r="B2" s="179">
+        <v>1</v>
+      </c>
+      <c r="C2" s="227" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="231"/>
-    </row>
-    <row r="3" spans="1:4" ht="108.6" thickBot="1">
-      <c r="A3" s="230" t="s">
+      <c r="D2" s="179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="179" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="232" t="s">
+      <c r="C3" s="227" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="230" t="s">
+      <c r="D3" s="179" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="232" t="s">
+      <c r="C4" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="234"/>
-    </row>
-    <row r="5" spans="1:4" ht="36" thickBot="1">
-      <c r="A5" s="230" t="s">
+      <c r="D4" s="179"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="234" t="s">
+      <c r="B5" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="232" t="s">
+      <c r="C5" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="234" t="s">
+      <c r="D5" s="179" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A6" s="235" t="s">
+    <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="228" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="229" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="234" t="s">
+      <c r="C6" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="234"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A7" s="235" t="s">
+      <c r="D6" s="179"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="234" t="s">
+      <c r="C7" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="234"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A8" s="235" t="s">
+      <c r="D7" s="179"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="228" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="236" t="s">
+      <c r="B8" s="229" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="234" t="s">
+      <c r="C8" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="234"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A9" s="235" t="s">
+      <c r="D8" s="179"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234" t="s">
+      <c r="B9" s="179"/>
+      <c r="C9" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="234"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A10" s="235" t="s">
+      <c r="D9" s="179"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234" t="s">
+      <c r="B10" s="179"/>
+      <c r="C10" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="234"/>
-    </row>
-    <row r="11" spans="1:4" ht="36" thickBot="1">
-      <c r="A11" s="230" t="s">
+      <c r="D10" s="179"/>
+    </row>
+    <row r="11" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="226" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="232" t="s">
+      <c r="B11" s="179" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="227" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="234" t="s">
+      <c r="D11" s="179" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="226" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="280" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="240" customHeight="1" thickBot="1">
-      <c r="A12" s="237" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="238" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="239"/>
-      <c r="D12" s="240"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1">
-      <c r="A13" s="230" t="s">
+      <c r="C12" s="281"/>
+      <c r="D12" s="282"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="226" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="B13" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="278"/>
+      <c r="D13" s="279"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="27"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="27"/>
     </row>
   </sheetData>

--- a/СтратегияТестированияЧек-листДефектТест-кейс.xlsx
+++ b/СтратегияТестированияЧек-листДефектТест-кейс.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977A0A67-F51B-4DEA-8DD6-689BF293914F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1FF7D-9E14-4A13-B20A-1FFE106199A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" firstSheet="4" activeTab="8" xr2:uid="{BA12028E-6D2B-43B8-99C7-0903A05B0948}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="8" xr2:uid="{BA12028E-6D2B-43B8-99C7-0903A05B0948}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="268">
   <si>
     <t>Тест-план по системному тестированию QT проекта</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Тест-кейс для проверки корректности работы регистрации в приложении</t>
-  </si>
-  <si>
-    <t>Панов Александр</t>
   </si>
   <si>
     <t>&lt;соответствующие значения незарегистрированного пользователя&gt;</t>
@@ -892,12 +889,6 @@
     <t xml:space="preserve"> -</t>
   </si>
   <si>
-    <t>Панов Александра Владимировича</t>
-  </si>
-  <si>
-    <t>Панов Александр Влладимирович</t>
-  </si>
-  <si>
     <t>screen_defect_auth.jpg</t>
   </si>
   <si>
@@ -905,6 +896,12 @@
   </si>
   <si>
     <t>Окно регистрации</t>
+  </si>
+  <si>
+    <t>Панов Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Панова Александра Владимировича</t>
   </si>
 </sst>
 </file>
@@ -3612,13 +3609,13 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K10" s="236" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3643,10 +3640,10 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="237"/>
     </row>
@@ -3672,10 +3669,10 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K12" s="237"/>
     </row>
@@ -3701,10 +3698,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K13" s="238"/>
     </row>
@@ -3743,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF7F97B-99EE-4535-B27D-B697AC6B1E4F}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3815,7 +3812,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="D4" s="186"/>
       <c r="E4" s="187"/>
@@ -3855,7 +3852,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="205" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="206"/>
       <c r="E7" s="207"/>
@@ -3958,10 +3955,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="221" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="220" t="s">
         <v>247</v>
-      </c>
-      <c r="C13" s="220" t="s">
-        <v>248</v>
       </c>
       <c r="D13" s="220" t="s">
         <v>58</v>
@@ -3969,7 +3966,7 @@
       <c r="E13" s="220"/>
       <c r="F13" s="220"/>
       <c r="G13" s="220" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="221"/>
     </row>
@@ -3978,10 +3975,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="222" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="220" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="220" t="s">
         <v>58</v>
@@ -3989,7 +3986,7 @@
       <c r="E14" s="220"/>
       <c r="F14" s="220"/>
       <c r="G14" s="220" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="221"/>
     </row>
@@ -3998,10 +3995,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="220" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="222" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D15" s="221" t="s">
         <v>58</v>
@@ -4009,7 +4006,7 @@
       <c r="E15" s="221"/>
       <c r="F15" s="221"/>
       <c r="G15" s="224" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" s="221"/>
     </row>
@@ -4018,10 +4015,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="222" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" s="221"/>
       <c r="E16" s="221" t="s">
@@ -4029,7 +4026,7 @@
       </c>
       <c r="F16" s="221"/>
       <c r="G16" s="224" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="223">
         <v>1</v>
@@ -4040,10 +4037,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="224" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="221" t="s">
         <v>58</v>
@@ -4051,7 +4048,7 @@
       <c r="E17" s="221"/>
       <c r="F17" s="221"/>
       <c r="G17" s="224" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="221"/>
     </row>
@@ -4060,10 +4057,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="222" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="221"/>
       <c r="E18" s="221" t="s">
@@ -4071,7 +4068,7 @@
       </c>
       <c r="F18" s="221"/>
       <c r="G18" s="221" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" s="221">
         <v>2</v>
@@ -4082,10 +4079,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="220" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="220" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="221" t="s">
         <v>58</v>
@@ -4093,7 +4090,7 @@
       <c r="E19" s="221"/>
       <c r="F19" s="221"/>
       <c r="G19" s="224" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H19" s="221"/>
     </row>
@@ -4102,10 +4099,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="220" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20" s="220" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="221" t="s">
         <v>58</v>
@@ -4113,7 +4110,7 @@
       <c r="E20" s="221"/>
       <c r="F20" s="221"/>
       <c r="G20" s="224" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" s="221"/>
     </row>
@@ -4138,7 +4135,7 @@
     <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27" s="208" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" s="208"/>
     </row>
@@ -4148,7 +4145,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="208" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -4157,7 +4154,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -4172,7 +4169,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="178" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -4181,7 +4178,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="178" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -4201,7 +4198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017E2EDC-2CE9-436C-B301-322D03BF0E1F}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -4218,10 +4215,10 @@
     <row r="1" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="97"/>
       <c r="B1" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="98" t="s">
         <v>146</v>
-      </c>
-      <c r="C1" s="98" t="s">
-        <v>147</v>
       </c>
       <c r="D1" s="98" t="s">
         <v>28</v>
@@ -4235,19 +4232,19 @@
     </row>
     <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="216">
         <v>1</v>
       </c>
       <c r="C2" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="100" t="s">
         <v>148</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="100" t="s">
-        <v>149</v>
       </c>
       <c r="F2" s="101" t="s">
         <v>27</v>
@@ -4259,13 +4256,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="100" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>154</v>
       </c>
       <c r="F3" s="101" t="s">
         <v>27</v>
@@ -4277,13 +4274,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="100" t="s">
         <v>150</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>151</v>
       </c>
       <c r="F4" s="101" t="s">
         <v>27</v>
@@ -4295,13 +4292,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="101" t="s">
         <v>27</v>
@@ -4313,13 +4310,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="100" t="s">
         <v>155</v>
-      </c>
-      <c r="D6" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>156</v>
       </c>
       <c r="F6" s="101" t="s">
         <v>27</v>
@@ -4333,13 +4330,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="103" t="s">
         <v>158</v>
-      </c>
-      <c r="D7" s="103" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>159</v>
       </c>
       <c r="F7" s="101" t="s">
         <v>27</v>
@@ -4351,13 +4348,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="103" t="s">
         <v>160</v>
-      </c>
-      <c r="D8" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="103" t="s">
-        <v>161</v>
       </c>
       <c r="F8" s="101" t="s">
         <v>27</v>
@@ -4369,13 +4366,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="103" t="s">
         <v>162</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>163</v>
       </c>
       <c r="F9" s="101" t="s">
         <v>27</v>
@@ -4387,13 +4384,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="103" t="s">
-        <v>165</v>
-      </c>
       <c r="E10" s="103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="101" t="s">
         <v>27</v>
@@ -4405,13 +4402,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="103" t="s">
         <v>177</v>
-      </c>
-      <c r="E11" s="103" t="s">
-        <v>178</v>
       </c>
       <c r="F11" s="101" t="s">
         <v>27</v>
@@ -4423,13 +4420,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12" s="101" t="s">
         <v>27</v>
@@ -4441,10 +4438,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="102"/>
       <c r="F13" s="101" t="s">
@@ -4457,13 +4454,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="E14" s="103" t="s">
         <v>184</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>185</v>
       </c>
       <c r="F14" s="101" t="s">
         <v>27</v>
@@ -4475,13 +4472,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="E15" s="103" t="s">
         <v>184</v>
-      </c>
-      <c r="E15" s="103" t="s">
-        <v>185</v>
       </c>
       <c r="F15" s="101" t="s">
         <v>27</v>
@@ -4493,13 +4490,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="E16" s="103" t="s">
         <v>187</v>
-      </c>
-      <c r="E16" s="103" t="s">
-        <v>188</v>
       </c>
       <c r="F16" s="101" t="s">
         <v>27</v>
@@ -4511,13 +4508,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="E17" s="103" t="s">
         <v>190</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>191</v>
       </c>
       <c r="F17" s="101" t="s">
         <v>27</v>
@@ -4529,13 +4526,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="E18" s="103" t="s">
         <v>193</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>194</v>
       </c>
       <c r="F18" s="101" t="s">
         <v>27</v>
@@ -4543,19 +4540,19 @@
     </row>
     <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A19" s="239" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="218">
         <v>18</v>
       </c>
       <c r="C19" s="96" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="E19" s="96" t="s">
         <v>196</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>197</v>
       </c>
       <c r="F19" s="101" t="s">
         <v>27</v>
@@ -4567,13 +4564,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="96" t="s">
-        <v>200</v>
-      </c>
       <c r="E20" s="96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" s="101" t="s">
         <v>27</v>
@@ -4585,13 +4582,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="E21" s="96" t="s">
         <v>202</v>
-      </c>
-      <c r="E21" s="96" t="s">
-        <v>203</v>
       </c>
       <c r="F21" s="101" t="s">
         <v>27</v>
@@ -4599,19 +4596,19 @@
     </row>
     <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A22" s="219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="93">
         <v>21</v>
       </c>
       <c r="C22" s="108" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="101" t="s">
         <v>27</v>
@@ -4623,13 +4620,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E23" s="108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" s="101" t="s">
         <v>27</v>
@@ -4641,13 +4638,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="108" t="s">
         <v>209</v>
-      </c>
-      <c r="D24" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="108" t="s">
-        <v>210</v>
       </c>
       <c r="F24" s="101" t="s">
         <v>27</v>
@@ -4659,13 +4656,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="108" t="s">
         <v>211</v>
-      </c>
-      <c r="D25" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="108" t="s">
-        <v>212</v>
       </c>
       <c r="F25" s="101" t="s">
         <v>27</v>
@@ -4677,13 +4674,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="108" t="s">
         <v>213</v>
-      </c>
-      <c r="D26" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="108" t="s">
-        <v>214</v>
       </c>
       <c r="F26" s="101" t="s">
         <v>27</v>
@@ -4695,13 +4692,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="108" t="s">
         <v>215</v>
-      </c>
-      <c r="D27" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="E27" s="108" t="s">
-        <v>216</v>
       </c>
       <c r="F27" s="101" t="s">
         <v>27</v>
@@ -4713,13 +4710,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="108" t="s">
         <v>217</v>
-      </c>
-      <c r="E28" s="108" t="s">
-        <v>218</v>
       </c>
       <c r="F28" s="101" t="s">
         <v>27</v>
@@ -4731,13 +4728,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="181" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="E29" s="181" t="s">
         <v>238</v>
-      </c>
-      <c r="E29" s="181" t="s">
-        <v>239</v>
       </c>
       <c r="F29" s="180" t="s">
         <v>27</v>
@@ -4749,13 +4746,13 @@
         <v>29</v>
       </c>
       <c r="C30" s="182" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="182" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="E30" s="182" t="s">
         <v>241</v>
-      </c>
-      <c r="E30" s="182" t="s">
-        <v>242</v>
       </c>
       <c r="F30" s="180" t="s">
         <v>27</v>
@@ -4767,13 +4764,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="181" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="181" t="s">
         <v>244</v>
       </c>
-      <c r="D31" s="181" t="s">
+      <c r="E31" s="108" t="s">
         <v>245</v>
-      </c>
-      <c r="E31" s="108" t="s">
-        <v>246</v>
       </c>
       <c r="F31" s="180" t="s">
         <v>27</v>
@@ -4805,10 +4802,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="240" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="241"/>
       <c r="D1" s="242"/>
@@ -4821,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="83">
         <v>4</v>
@@ -4829,11 +4826,11 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="85"/>
     </row>
@@ -4842,108 +4839,108 @@
         <v>11</v>
       </c>
       <c r="B4" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>105</v>
       </c>
       <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="C6" s="85" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>112</v>
       </c>
       <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="C8" s="85" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>116</v>
       </c>
       <c r="D8" s="85"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="85"/>
       <c r="C10" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="85"/>
       <c r="C11" s="84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="243" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="244"/>
       <c r="D12" s="245"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="240"/>
       <c r="C13" s="241"/>
@@ -5021,7 +5018,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="41"/>
@@ -5029,7 +5026,7 @@
         <v>31</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="43"/>
     </row>
@@ -5039,7 +5036,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="250" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45"/>
@@ -5069,7 +5066,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
@@ -5123,7 +5120,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="61"/>
@@ -5212,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>95</v>
       </c>
       <c r="D13" s="75" t="s">
         <v>58</v>
@@ -5223,7 +5220,7 @@
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
       <c r="G13" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="77"/>
     </row>
@@ -5232,10 +5229,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="74" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>97</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>58</v>
@@ -5243,7 +5240,7 @@
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="80"/>
     </row>
@@ -5252,10 +5249,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>58</v>
@@ -5263,7 +5260,7 @@
       <c r="E15" s="79"/>
       <c r="F15" s="79"/>
       <c r="G15" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="80"/>
     </row>
@@ -5272,10 +5269,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="75" t="s">
         <v>58</v>
@@ -5283,7 +5280,7 @@
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
       <c r="G16" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="79"/>
     </row>
@@ -5292,10 +5289,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="75" t="s">
         <v>58</v>
@@ -5303,7 +5300,7 @@
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
       <c r="G17" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="79"/>
     </row>
@@ -5335,10 +5332,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="240" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" s="241"/>
       <c r="D1" s="242"/>
@@ -5351,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="83">
         <v>1</v>
@@ -5359,16 +5356,16 @@
     </row>
     <row r="3" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="D3" s="85" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5376,113 +5373,113 @@
         <v>11</v>
       </c>
       <c r="B4" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>105</v>
       </c>
       <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="C6" s="85" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>112</v>
       </c>
       <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="C8" s="85" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>116</v>
       </c>
       <c r="D8" s="85"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="85"/>
       <c r="C10" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>122</v>
-      </c>
       <c r="D11" s="85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="243" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="244"/>
       <c r="D12" s="245"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="240" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="241"/>
       <c r="D13" s="242"/>
@@ -5523,7 +5520,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="147" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="148"/>
       <c r="E1" s="149"/>
@@ -5531,7 +5528,7 @@
         <v>31</v>
       </c>
       <c r="G1" s="150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="151"/>
     </row>
@@ -5541,7 +5538,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="256" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="152"/>
       <c r="E2" s="153"/>
@@ -5573,7 +5570,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="148"/>
       <c r="E4" s="149"/>
@@ -5716,10 +5713,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>58</v>
@@ -5727,7 +5724,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -5736,10 +5733,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>58</v>
@@ -5747,7 +5744,7 @@
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="36"/>
     </row>
@@ -5756,10 +5753,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="35" t="s">
@@ -5767,7 +5764,7 @@
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" s="36">
         <v>1</v>
@@ -5787,7 +5784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6B3273-76EB-4249-874D-3207013E4E92}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:D27"/>
     </sheetView>
   </sheetViews>
@@ -5801,10 +5798,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="258" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1" s="259"/>
       <c r="D1" s="260"/>
@@ -5817,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="83">
         <v>3</v>
@@ -5825,16 +5822,16 @@
     </row>
     <row r="3" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="D3" s="85" t="s">
         <v>226</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5842,103 +5839,103 @@
         <v>11</v>
       </c>
       <c r="B4" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="144" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>105</v>
       </c>
       <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="C5" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="D5" s="85" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="C6" s="85" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>112</v>
       </c>
       <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="C8" s="85" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>116</v>
       </c>
       <c r="D8" s="85"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="85"/>
       <c r="C10" s="85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="144" t="s">
-        <v>122</v>
-      </c>
       <c r="D11" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="261" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="262" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="263"/>
       <c r="D12" s="264"/>
@@ -6035,10 +6032,10 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="258" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" s="259"/>
       <c r="D28" s="260"/>
@@ -6130,7 +6127,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="112"/>
       <c r="E4" s="113"/>
@@ -6332,7 +6329,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>61</v>
@@ -6364,7 +6361,7 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="23">
         <v>3</v>
@@ -6406,7 +6403,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6419,10 +6416,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="225" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="277" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C1" s="278"/>
       <c r="D1" s="279"/>
@@ -6435,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="227" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="179">
         <v>2</v>
@@ -6443,16 +6440,16 @@
     </row>
     <row r="3" spans="1:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="226" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="179" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="227" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="179" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="227" t="s">
-        <v>103</v>
-      </c>
       <c r="D3" s="179" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -6460,113 +6457,113 @@
         <v>11</v>
       </c>
       <c r="B4" s="179" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="227" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="227" t="s">
-        <v>105</v>
       </c>
       <c r="D4" s="179"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="226" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="179" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="227" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="179" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="179" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="228" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="229" t="s">
+      <c r="C6" s="179" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="179" t="s">
-        <v>112</v>
       </c>
       <c r="D6" s="179"/>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="228" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="179"/>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="228" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="229" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="229" t="s">
+      <c r="C8" s="179" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="179" t="s">
-        <v>116</v>
       </c>
       <c r="D8" s="179"/>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="228" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="179"/>
       <c r="C9" s="179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="179"/>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="228" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="179"/>
       <c r="C10" s="179" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="179"/>
     </row>
     <row r="11" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="226" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="179" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="227" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="179" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="227" t="s">
-        <v>122</v>
-      </c>
       <c r="D11" s="179" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="226" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="280" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="281"/>
       <c r="D12" s="282"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="226" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="277" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C13" s="278"/>
       <c r="D13" s="279"/>
